--- a/medicine/Enfance/MacKinlay_Kantor/MacKinlay_Kantor.xlsx
+++ b/medicine/Enfance/MacKinlay_Kantor/MacKinlay_Kantor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">MacKinlay Kantor, né le 4 février 1904 à Webster City, en Iowa, et mort le 11 octobre 1977 à Sarasota, en Floride, est un journaliste, écrivain et scénariste américain. Plusieurs de ses récits appartiennent au genre policier.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Peu après avoir terminé le High School, il est brièvement reporter pour le quotidien The Webster City Daily News, dont sa mère est rédacteur en chef.
-Dès l'âge de 16 ans, il publie des nouvelles policières dans des pulps. Certaines de ses nouvelles sont tout particulièrement remarquées, notamment Le "22" appelle (The Light at "Three O'Clock", 1930), « où il s'affirme comme un pionnier du suspense, dans la veine de ce qu'écrira quelques années plus tard le grand William Irish »[1]. Trois autres nouvelles - Ils étaient trois dans le roadster (The Trail of the Brown Sedan, 1933) ; Gardien de square (Sparrow Cop, 1933) ; Chasse à l'homme (The Hunting of Hemingway, 1934) - « préfigurent les récits de procédure policière qui naîtront dans les années 1940 »[1]. L'un de ses romans, Signal 32 (Signal Thirty-Two, 1950), appartient d'ailleurs à ce sous-genre du roman policier.
+Dès l'âge de 16 ans, il publie des nouvelles policières dans des pulps. Certaines de ses nouvelles sont tout particulièrement remarquées, notamment Le "22" appelle (The Light at "Three O'Clock", 1930), « où il s'affirme comme un pionnier du suspense, dans la veine de ce qu'écrira quelques années plus tard le grand William Irish ». Trois autres nouvelles - Ils étaient trois dans le roadster (The Trail of the Brown Sedan, 1933) ; Gardien de square (Sparrow Cop, 1933) ; Chasse à l'homme (The Hunting of Hemingway, 1934) - « préfigurent les récits de procédure policière qui naîtront dans les années 1940 ». L'un de ses romans, Signal 32 (Signal Thirty-Two, 1950), appartient d'ailleurs à ce sous-genre du roman policier.
 Au milieu des années 1920, il s'installe un temps à Chicago, où se déroule l'action de Diversey, son premier roman paru en 1928, mais la Grande Dépression le pousse à retourner dans son Iowa natal où il devient chroniqueur du Des Moines Tribune. Après son mariage, en 1932, il s'installe au New Jersey, dans la banlieue de New York.
 Pendant la Seconde Guerre mondiale, il est correspondant de guerre avec la Royal Air Force et sert également son pays dans la US Air Force. Il est fait prisonnier par les Allemands et détenu au camp de concentration de Buchenwald. Il est libéré le 14 avril 1945.
 Après le conflit, il travaille à Hollywood comme scénariste, tout en poursuivant sa carrière d'écrivain. Il signe notamment, en collaboration avec Dalton Trumbo, l'adaptation de sa nouvelle policière Gun Crazy (1940) qui devient un célèbre film noir réalisé en 1950 par Joseph H. Lewis sous le titre Le Démon des armes (Gun Crazy).
@@ -552,8 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Diversey (1928)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Diversey (1928)
 El Goes South (1930)
 The Jaybird (1932)
 Long Remember (1934)
@@ -584,23 +603,126 @@
 Beauty Beast (1968)
 I Love You, Irene (1973)
 The Children Sing (1974)
-Valley Forge (1975)
-Littérature d'enfance et de jeunesse
-Angleworms on Toast (1942)
+Valley Forge (1975)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Angleworms on Toast (1942)
 Lee and Grant at Appomattox (1950)
 Gettysburg (1952)
 The Work of Saint Francis (1958)
 The Goss Boys (1958)
 Gettysburg (1987), ouvrage posthume
-As Far As the Eye Can Reach (2003), ouvrage posthume
-Recueils de nouvelles
-Turkey in the Straw: A Book of American Ballads and Primitive Verse (1935)
+As Far As the Eye Can Reach (2003), ouvrage posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Turkey in the Straw: A Book of American Ballads and Primitive Verse (1935)
 Author's Choice (1944)
 Silent Grow the Guns, and Other Tales of the American Civil War (1958)
 It's About Crime (1960)
 The Gun-Toter, and Other Stories of the Missouri Hills (1963)
-Story Teller (1967), recueils de nouvelles et d'essais
-Nouvelles
+Story Teller (1967), recueils de nouvelles et d'essais</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The Biggest Liar in Eagle Falls (1927)
 A Bad Night for Benny (1928)
 Delivery Nor Received (1928)
@@ -741,43 +863,114 @@
 So Pretty and So Green (1966)
 Donnington (1967)
 The Short, Happy Life of Francis Shellenberger (1975)
-Mémoires et récits autobiographiques
-But Look, the Morn: The Story of a Childhood (1939), plusieurs versions augmentées jusqu'en 1951
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mémoires et récits autobiographiques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>But Look, the Morn: The Story of a Childhood (1939), plusieurs versions augmentées jusqu'en 1951
 Lobo (1958), ouvrage autobiographique évoquant l'auteur et sa femme au moment de l'écriture du roman Andersonville paru en 1955 Publié en français sous le titre Lobo, traduit par Renée Tesnière, Paris, éditions France Empire, 1958, 111 p. (BNF 32298940)
-The Day I Met a Lion (1968), mémoires et essais
-Autres publications
-Adress (1961)
+The Day I Met a Lion (1968), mémoires et essais</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Adress (1961)
 Mission with LeMay: My Story (1965), en collaboration avec Curtis LeMay
 Missouri Bittersweet (1969)
 Hamilton County (1970), en collaboration avec Tim Kantor</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>MacKinlay_Kantor</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/MacKinlay_Kantor</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1936 : The Voice of Bugle Ann, film américain réalisé par Richard Thorpe, adaptation du roman éponyme, avec Lionel Barrymore et Maureen O'Sullivan
 1937 : Mountain Music (en), film américain réalisé par Robert Florey, adaptation de la nouvelle éponyme parue en 1935, avec Bob Burns, Martha Raye et John Howard
